--- a/test script/ViewProductByListProduct.xlsx
+++ b/test script/ViewProductByListProduct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanlangunivn.sharepoint.com/sites/BEOMANLOC/Shared Documents/test case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rdyears\autotestpractice\project\dienmayXANH\github\DienMayXanh\test script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="11_BBF0F3E85768199C8513EBBF465CE64F113A3152" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{268AAB85-D65F-4307-9B9C-5BD94E4A00BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8284F6-D27F-456E-927C-377EA4602859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="1" r:id="rId1"/>
@@ -225,12 +225,6 @@
     <t>Nhấn chọn vào sản phẩm muốn xem</t>
   </si>
   <si>
-    <t>Máy lọc nước RO hydrogen ion kiềm Kangaroo KG100EO 7 lõi</t>
-  </si>
-  <si>
-    <t>Hệ thống hiển thị thông tin chi tiết sản phẩm đó</t>
-  </si>
-  <si>
     <t>LooknFeel</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>Modify</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị đúng thông tin chi tiết sản phẩm đó</t>
+  </si>
+  <si>
+    <t>Máy lọc nước RO hydrogen ion kiềm Kangaroo 7 lõi KG100E0</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -883,43 +883,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,6 +988,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,13 +1093,13 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,9 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1446,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,20 +1422,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1481,12 +1444,12 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1527,7 +1490,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1549,12 +1512,12 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
@@ -1563,12 +1526,12 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
@@ -1577,40 +1540,40 @@
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1652,74 +1615,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="57"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="62"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49">
         <v>44120</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="51">
         <v>44126</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -1744,17 +1707,17 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
@@ -1797,7 +1760,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>26</v>
@@ -1845,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1862,18 +1825,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -1908,55 +1871,55 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71">
+      <c r="A4" s="72">
         <v>1</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="76" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="26">
         <v>1</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="68"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="72"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="26">
         <v>2</v>
       </c>
@@ -1964,19 +1927,19 @@
         <v>50</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="72"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="26">
         <v>3</v>
       </c>
@@ -1989,14 +1952,14 @@
       <c r="I6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="69"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="74"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="26">
         <v>4</v>
       </c>
@@ -2004,12 +1967,12 @@
         <v>53</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="70"/>
+        <v>60</v>
+      </c>
+      <c r="J7" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2227,7 +2190,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE6E0C4-39D5-430C-93FB-469353636B7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFE6E0C4-39D5-430C-93FB-469353636B7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73b10483-4eab-47d9-97c6-997f49bd58aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
